--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mon Drive\ENSAM 3A\UE22 - Robust Design and Big data\Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VALENTIN\Desktop\Challenge_big_data\Challenge_big_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246EA585-27B5-4C89-A96E-E9BB34EDA362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29428C86-C461-4E69-A418-CA57CBC91969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,9 +396,6 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -427,6 +424,153 @@
         <v>1</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
     </row>
